--- a/biology/Virologie/Chitovirales/Chitovirales.xlsx
+++ b/biology/Virologie/Chitovirales/Chitovirales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poxviridés
 Les Poxviridés  (Poxviridae) est une famille qui appartient au groupe I des virus à ADN à double brin et comprend 2 sous-familles : les Chordopoxvirinae  chez les vertébrés et les Entomopoxvirinae chez les insectes. 
@@ -514,7 +526,9 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poxvirus possèdent un génome d'ADN linéaire double-brin variant de 134 kbp (134 000 paires de bases) dans les parapoxvirus à plus de 300 kbp dans certains avipoxvirus. En lui-même, l'ADN d'un poxvirus n'est pas infectieux car l'ARN polymérase virale et d'autres enzymes et facteurs viraux sont nécessaires pour exprimer le génome viral dans le cytoplasme. Tous les poxvirus possèdent des répétitions terminales inversées (en anglais, ITR pour inverted terminal repetitions) qui sont des séquences identiques mais d'orientation opposée aux deux extrémités du génome.
 </t>
@@ -545,7 +559,9 @@
           <t>Réplication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La réplication des poxvirus comporte plusieurs étapes. Le virus se lie à un récepteur sur la surface de la cellule hôte, on pense que les récepteurs pour les poxvirus sont les glycosaminoglycanes (GAG). Après liaison au récepteur, le virus pénètre dans la cellule où il est déshabillé. La décapsidation du virus est un processus en deux étapes. Tout d'abord la membrane externe est enlevée alors que la particule pénètre dans la cellule, ensuite la particule virale, sans la membrane externe, se désagrège jusqu'à libérer le core dans le cytoplasme. Les gènes viraux sont exprimés en deux phases. Les gènes précoces sont d'abord exprimés. Ces gènes codent des protéines non structurelles, comme les protéines nécessaires à la réplication du génome viral et sont exprimés avant que le génome ne soit répliqué. Les gènes tardifs sont exprimés après que le génome a été répliqué et codent les protéines structurelles permettant de rendre la particule infectieuse. L'assemblage de la particule virale se produit dans le cytoplasme de la cellule et est un processus complexe qui est mal compris et actuellement à l'étude.
 La réplication des poxvirus est inhabituelle pour des virus à ADN double brin (ADNdb) parce qu'elle se produit dans le cytoplasme. Les poxvirus codent leur propre machine pour la transcription du génome, une ARN polymérase dépendante de l'ADN, ce qui rend la réplication dans le cytoplasme possible. La plupart des virus à ADNdb nécessitent des protéines de la cellule hôte pour effectuer la transcription. Ces protéines de l'hôte se trouvent dans le noyau et donc la plupart des virus ADNdb effectuent une partie de leur cycle d'infection au sein du noyau de la cellule hôte.
@@ -577,7 +593,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'ICTV, en mai 2023, les Poxviridae comprennent deux sous-familles et 22 genres dont les suivants :
 Sous-famille des Chordopoxvirinae :
@@ -593,7 +611,7 @@
 Genre Entomopoxvirus A ; type d'espèce : Melolontha melolontha entomopoxvirus ;
 Genre Entomopoxvirus B ; type d'espèce : Amsacta moorei entomopoxvirus ;
 Genre Entomopoxvirus C ; type d'espèce : Chironomus luridus entomopoxvirus.
-Le nom de virus Alaskapox est proposé comme une nouvelle espèce dans la sous-famille Chordopoxvirinae après la publication d’une analyse complète de son génome en 2019 mais n'est pas encore validé par l'ICTV[2].
+Le nom de virus Alaskapox est proposé comme une nouvelle espèce dans la sous-famille Chordopoxvirinae après la publication d’une analyse complète de son génome en 2019 mais n'est pas encore validé par l'ICTV.
 </t>
         </is>
       </c>
